--- a/contratos/contratos-9-2019.xlsx
+++ b/contratos/contratos-9-2019.xlsx
@@ -1057,7 +1057,7 @@
     <t>TURIN ALBERTO JOSE</t>
   </si>
   <si>
-    <t>URUMAT SOCIEDAD SIMPLE DE BONASEGLA CATALINA, BONASEGLA LUCIANA Y BONASEGLA SILVIO.</t>
+    <t>URUMAT SOCIEDAD SIMPLE DE BONASEGLA CATALINA. BONASEGLA LUCIANA Y BONASEGLA SILVIO</t>
   </si>
   <si>
     <t>PIZZOTTI JORGE MARCELO</t>
@@ -1096,7 +1096,7 @@
     <t>NEUMATICOS DER GUMMI S.R.L.</t>
   </si>
   <si>
-    <t>BOFFELLI, MARIA INES</t>
+    <t>BOFFELLI. MARIA INES</t>
   </si>
   <si>
     <t>BOURLOT ALDO RENE</t>
@@ -1402,7 +1402,7 @@
     <t>SUCESION DE WAISENBERG OSCAR</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>ARDETI GUSTAVO EMANUEL</t>
@@ -1429,7 +1429,7 @@
     <t>SANCHEZ SUSANA BEATRIZ FRANCISCA</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>COLOMBO GUSTAVO NICOLAS</t>
@@ -1993,736 +1993,736 @@
     <t>81</t>
   </si>
   <si>
-    <t>24.200,00</t>
-  </si>
-  <si>
-    <t>102.700,00</t>
-  </si>
-  <si>
-    <t>35.600,00</t>
-  </si>
-  <si>
-    <t>22.000,00</t>
-  </si>
-  <si>
-    <t>52.800,00</t>
-  </si>
-  <si>
-    <t>128.120,00</t>
-  </si>
-  <si>
-    <t>36.400,00</t>
-  </si>
-  <si>
-    <t>52.000,00</t>
-  </si>
-  <si>
-    <t>93.800,00</t>
-  </si>
-  <si>
-    <t>348.400,00</t>
-  </si>
-  <si>
-    <t>207.671,00</t>
-  </si>
-  <si>
-    <t>16.900,00</t>
-  </si>
-  <si>
-    <t>1.880.000,00</t>
-  </si>
-  <si>
-    <t>850.000,00</t>
-  </si>
-  <si>
-    <t>15.456,00</t>
-  </si>
-  <si>
-    <t>193.500,00</t>
-  </si>
-  <si>
-    <t>1.203,48</t>
-  </si>
-  <si>
-    <t>772.005,50</t>
-  </si>
-  <si>
-    <t>9.500,00</t>
-  </si>
-  <si>
-    <t>890,72</t>
-  </si>
-  <si>
-    <t>1.720,00</t>
-  </si>
-  <si>
-    <t>1.539,99</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>829.560,00</t>
-  </si>
-  <si>
-    <t>120.904,00</t>
-  </si>
-  <si>
-    <t>93.604,75</t>
-  </si>
-  <si>
-    <t>1.160,00</t>
-  </si>
-  <si>
-    <t>496.399,19</t>
-  </si>
-  <si>
-    <t>154.060,00</t>
-  </si>
-  <si>
-    <t>43.036,00</t>
-  </si>
-  <si>
-    <t>63.920,00</t>
-  </si>
-  <si>
-    <t>1.411,10</t>
-  </si>
-  <si>
-    <t>116.545,39</t>
-  </si>
-  <si>
-    <t>798,00</t>
-  </si>
-  <si>
-    <t>33.150,00</t>
-  </si>
-  <si>
-    <t>14.400,00</t>
-  </si>
-  <si>
-    <t>3.300,00</t>
-  </si>
-  <si>
-    <t>8.858,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>5.480,00</t>
-  </si>
-  <si>
-    <t>697,95</t>
-  </si>
-  <si>
-    <t>515,20</t>
-  </si>
-  <si>
-    <t>2.215,22</t>
-  </si>
-  <si>
-    <t>518.388,00</t>
-  </si>
-  <si>
-    <t>46.529,85</t>
-  </si>
-  <si>
-    <t>1.900,00</t>
-  </si>
-  <si>
-    <t>6.969,80</t>
-  </si>
-  <si>
-    <t>16.563,40</t>
-  </si>
-  <si>
-    <t>100,00</t>
-  </si>
-  <si>
-    <t>2.764.380,00</t>
-  </si>
-  <si>
-    <t>3.869,81</t>
-  </si>
-  <si>
-    <t>662,80</t>
-  </si>
-  <si>
-    <t>7.152,97</t>
-  </si>
-  <si>
-    <t>125.465,33</t>
-  </si>
-  <si>
-    <t>16.671,52</t>
-  </si>
-  <si>
-    <t>324,00</t>
-  </si>
-  <si>
-    <t>24.792,50</t>
-  </si>
-  <si>
-    <t>24.085,89</t>
-  </si>
-  <si>
-    <t>70.361,50</t>
-  </si>
-  <si>
-    <t>11.171,58</t>
-  </si>
-  <si>
-    <t>2.927.410,00</t>
-  </si>
-  <si>
-    <t>4.867,86</t>
-  </si>
-  <si>
-    <t>12.503,50</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>252,68</t>
-  </si>
-  <si>
-    <t>900,00</t>
-  </si>
-  <si>
-    <t>32.083,80</t>
-  </si>
-  <si>
-    <t>11.200,00</t>
-  </si>
-  <si>
-    <t>21.478,77</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>30.748,56</t>
-  </si>
-  <si>
-    <t>9.852,00</t>
-  </si>
-  <si>
-    <t>48.649,60</t>
-  </si>
-  <si>
-    <t>4.560,00</t>
-  </si>
-  <si>
-    <t>25.280,00</t>
-  </si>
-  <si>
-    <t>54.326,00</t>
-  </si>
-  <si>
-    <t>876.500,00</t>
-  </si>
-  <si>
-    <t>8.400,00</t>
-  </si>
-  <si>
-    <t>6.825,00</t>
-  </si>
-  <si>
-    <t>63.100,00</t>
-  </si>
-  <si>
-    <t>81.500,00</t>
-  </si>
-  <si>
-    <t>26.250,00</t>
-  </si>
-  <si>
-    <t>42.000,00</t>
-  </si>
-  <si>
-    <t>16.419,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>9.950,00</t>
-  </si>
-  <si>
-    <t>21.844,00</t>
-  </si>
-  <si>
-    <t>15.700,00</t>
-  </si>
-  <si>
-    <t>3.250,00</t>
-  </si>
-  <si>
-    <t>34.965,00</t>
-  </si>
-  <si>
-    <t>331,68</t>
-  </si>
-  <si>
-    <t>1.330,00</t>
-  </si>
-  <si>
-    <t>86.500,00</t>
-  </si>
-  <si>
-    <t>7.537,50</t>
-  </si>
-  <si>
-    <t>2.760,00</t>
-  </si>
-  <si>
-    <t>48.000,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>3.350,00</t>
-  </si>
-  <si>
-    <t>30.000,00</t>
-  </si>
-  <si>
-    <t>38.000,00</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>543.300,00</t>
-  </si>
-  <si>
-    <t>6.390,00</t>
-  </si>
-  <si>
-    <t>50.000,00</t>
-  </si>
-  <si>
-    <t>132.451,56</t>
-  </si>
-  <si>
-    <t>7.900,00</t>
-  </si>
-  <si>
-    <t>103,50</t>
-  </si>
-  <si>
-    <t>8.450,00</t>
-  </si>
-  <si>
-    <t>307,58</t>
-  </si>
-  <si>
-    <t>82.372,50</t>
-  </si>
-  <si>
-    <t>210.145,00</t>
-  </si>
-  <si>
-    <t>148.438,50</t>
-  </si>
-  <si>
-    <t>16.800,00</t>
-  </si>
-  <si>
-    <t>7.086,12</t>
-  </si>
-  <si>
-    <t>1.830,00</t>
-  </si>
-  <si>
-    <t>18.913,28</t>
-  </si>
-  <si>
-    <t>8.594,80</t>
-  </si>
-  <si>
-    <t>17.659,01</t>
-  </si>
-  <si>
-    <t>7.700,00</t>
-  </si>
-  <si>
-    <t>4.642,00</t>
-  </si>
-  <si>
-    <t>131.700,01</t>
-  </si>
-  <si>
-    <t>16.400,00</t>
-  </si>
-  <si>
-    <t>8.268,76</t>
-  </si>
-  <si>
-    <t>280,00</t>
-  </si>
-  <si>
-    <t>868,10</t>
-  </si>
-  <si>
-    <t>7.220,00</t>
-  </si>
-  <si>
-    <t>1.312,30</t>
-  </si>
-  <si>
-    <t>1.245,00</t>
-  </si>
-  <si>
-    <t>3.770,00</t>
-  </si>
-  <si>
-    <t>1.040,00</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>324.044,00</t>
-  </si>
-  <si>
-    <t>2.900,00</t>
-  </si>
-  <si>
-    <t>83.000,00</t>
-  </si>
-  <si>
-    <t>9.200,00</t>
-  </si>
-  <si>
-    <t>4.690.000,00</t>
-  </si>
-  <si>
-    <t>120.710,00</t>
-  </si>
-  <si>
-    <t>156.000,00</t>
-  </si>
-  <si>
-    <t>1.306.698,88</t>
-  </si>
-  <si>
-    <t>12.026,00</t>
-  </si>
-  <si>
-    <t>14.700,00</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>4.800,00</t>
-  </si>
-  <si>
-    <t>53.000,00</t>
-  </si>
-  <si>
-    <t>69.999,99</t>
-  </si>
-  <si>
-    <t>16.000,00</t>
-  </si>
-  <si>
-    <t>25.000,00</t>
-  </si>
-  <si>
-    <t>66.000,00</t>
-  </si>
-  <si>
-    <t>419.400,00</t>
-  </si>
-  <si>
-    <t>14.000,00</t>
-  </si>
-  <si>
-    <t>33.000,00</t>
-  </si>
-  <si>
-    <t>39.400,00</t>
-  </si>
-  <si>
-    <t>16.500,00</t>
-  </si>
-  <si>
-    <t>69.000,00</t>
-  </si>
-  <si>
-    <t>3.752,34</t>
-  </si>
-  <si>
-    <t>2.610,00</t>
-  </si>
-  <si>
-    <t>827,90</t>
-  </si>
-  <si>
-    <t>222.073,97</t>
-  </si>
-  <si>
-    <t>14.985,00</t>
-  </si>
-  <si>
-    <t>4.299,00</t>
-  </si>
-  <si>
-    <t>15.964,47</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>35.000,00</t>
-  </si>
-  <si>
-    <t>9.000,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>8.500,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>23.000,00</t>
-  </si>
-  <si>
-    <t>41.733,20</t>
-  </si>
-  <si>
-    <t>12.800,00</t>
-  </si>
-  <si>
-    <t>18.000,00</t>
-  </si>
-  <si>
-    <t>41.300,00</t>
-  </si>
-  <si>
-    <t>37.000,00</t>
-  </si>
-  <si>
-    <t>30.300,00</t>
-  </si>
-  <si>
-    <t>4.600,00</t>
-  </si>
-  <si>
-    <t>16.683,00</t>
-  </si>
-  <si>
-    <t>24.800,00</t>
-  </si>
-  <si>
-    <t>10.500,00</t>
-  </si>
-  <si>
-    <t>25.300,00</t>
-  </si>
-  <si>
-    <t>890,55</t>
-  </si>
-  <si>
-    <t>9.165,00</t>
-  </si>
-  <si>
-    <t>5.819,90</t>
-  </si>
-  <si>
-    <t>45.412,00</t>
-  </si>
-  <si>
-    <t>860,07</t>
-  </si>
-  <si>
-    <t>60.270,00</t>
-  </si>
-  <si>
-    <t>11.000,00</t>
-  </si>
-  <si>
-    <t>14.673,50</t>
-  </si>
-  <si>
-    <t>60.280,00</t>
-  </si>
-  <si>
-    <t>12.081,00</t>
-  </si>
-  <si>
-    <t>2.800,00</t>
-  </si>
-  <si>
-    <t>15.572,57</t>
-  </si>
-  <si>
-    <t>17.190,00</t>
-  </si>
-  <si>
-    <t>13.370,00</t>
-  </si>
-  <si>
-    <t>43.047,00</t>
-  </si>
-  <si>
-    <t>4.980,00</t>
-  </si>
-  <si>
-    <t>3.539,12</t>
-  </si>
-  <si>
-    <t>536,63</t>
-  </si>
-  <si>
-    <t>2.350,03</t>
-  </si>
-  <si>
-    <t>525,64</t>
-  </si>
-  <si>
-    <t>6.800,00</t>
-  </si>
-  <si>
-    <t>9.120,00</t>
-  </si>
-  <si>
-    <t>17.100,00</t>
-  </si>
-  <si>
-    <t>5.400,00</t>
-  </si>
-  <si>
-    <t>97.501,09</t>
-  </si>
-  <si>
-    <t>40.000,00</t>
-  </si>
-  <si>
-    <t>55.000,00</t>
-  </si>
-  <si>
-    <t>2.790,00</t>
-  </si>
-  <si>
-    <t>5.800,00</t>
-  </si>
-  <si>
-    <t>30.406,61</t>
-  </si>
-  <si>
-    <t>13.000,00</t>
-  </si>
-  <si>
-    <t>7.206.127,78</t>
-  </si>
-  <si>
-    <t>8.150,00</t>
-  </si>
-  <si>
-    <t>12.720,00</t>
-  </si>
-  <si>
-    <t>1.140.000,00</t>
-  </si>
-  <si>
-    <t>24.098.085,72</t>
-  </si>
-  <si>
-    <t>472.500,00</t>
-  </si>
-  <si>
-    <t>266.000,00</t>
-  </si>
-  <si>
-    <t>522.700,00</t>
-  </si>
-  <si>
-    <t>269.450,00</t>
-  </si>
-  <si>
-    <t>423.700,00</t>
-  </si>
-  <si>
-    <t>236.000,00</t>
-  </si>
-  <si>
-    <t>472.000,00</t>
-  </si>
-  <si>
-    <t>6.400,00</t>
-  </si>
-  <si>
-    <t>152.200,00</t>
-  </si>
-  <si>
-    <t>784.000,00</t>
-  </si>
-  <si>
-    <t>9.973.837,54</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>660.640,00</t>
-  </si>
-  <si>
-    <t>913.019,66</t>
-  </si>
-  <si>
-    <t>439.560,00</t>
-  </si>
-  <si>
-    <t>823.810,54</t>
-  </si>
-  <si>
-    <t>31.500,00</t>
-  </si>
-  <si>
-    <t>11.700,00</t>
-  </si>
-  <si>
-    <t>7.200,00</t>
-  </si>
-  <si>
-    <t>656.200,00</t>
-  </si>
-  <si>
-    <t>6.500,00</t>
-  </si>
-  <si>
-    <t>214.000,00</t>
-  </si>
-  <si>
-    <t>990,00</t>
-  </si>
-  <si>
-    <t>15.120,00</t>
+    <t>24200.00</t>
+  </si>
+  <si>
+    <t>102700.00</t>
+  </si>
+  <si>
+    <t>35600.00</t>
+  </si>
+  <si>
+    <t>22000.00</t>
+  </si>
+  <si>
+    <t>52800.00</t>
+  </si>
+  <si>
+    <t>128120.00</t>
+  </si>
+  <si>
+    <t>36400.00</t>
+  </si>
+  <si>
+    <t>52000.00</t>
+  </si>
+  <si>
+    <t>93800.00</t>
+  </si>
+  <si>
+    <t>348400.00</t>
+  </si>
+  <si>
+    <t>207671.00</t>
+  </si>
+  <si>
+    <t>16900.00</t>
+  </si>
+  <si>
+    <t>1880000.00</t>
+  </si>
+  <si>
+    <t>850000.00</t>
+  </si>
+  <si>
+    <t>15456.00</t>
+  </si>
+  <si>
+    <t>193500.00</t>
+  </si>
+  <si>
+    <t>1203.48</t>
+  </si>
+  <si>
+    <t>772005.50</t>
+  </si>
+  <si>
+    <t>9500.00</t>
+  </si>
+  <si>
+    <t>890.72</t>
+  </si>
+  <si>
+    <t>1720.00</t>
+  </si>
+  <si>
+    <t>1539.99</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>829560.00</t>
+  </si>
+  <si>
+    <t>120904.00</t>
+  </si>
+  <si>
+    <t>93604.75</t>
+  </si>
+  <si>
+    <t>1160.00</t>
+  </si>
+  <si>
+    <t>496399.19</t>
+  </si>
+  <si>
+    <t>154060.00</t>
+  </si>
+  <si>
+    <t>43036.00</t>
+  </si>
+  <si>
+    <t>63920.00</t>
+  </si>
+  <si>
+    <t>1411.10</t>
+  </si>
+  <si>
+    <t>116545.39</t>
+  </si>
+  <si>
+    <t>798.00</t>
+  </si>
+  <si>
+    <t>33150.00</t>
+  </si>
+  <si>
+    <t>14400.00</t>
+  </si>
+  <si>
+    <t>3300.00</t>
+  </si>
+  <si>
+    <t>8858.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>5480.00</t>
+  </si>
+  <si>
+    <t>697.95</t>
+  </si>
+  <si>
+    <t>515.20</t>
+  </si>
+  <si>
+    <t>2215.22</t>
+  </si>
+  <si>
+    <t>518388.00</t>
+  </si>
+  <si>
+    <t>46529.85</t>
+  </si>
+  <si>
+    <t>1900.00</t>
+  </si>
+  <si>
+    <t>6969.80</t>
+  </si>
+  <si>
+    <t>16563.40</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>2764380.00</t>
+  </si>
+  <si>
+    <t>3869.81</t>
+  </si>
+  <si>
+    <t>662.80</t>
+  </si>
+  <si>
+    <t>7152.97</t>
+  </si>
+  <si>
+    <t>125465.33</t>
+  </si>
+  <si>
+    <t>16671.52</t>
+  </si>
+  <si>
+    <t>324.00</t>
+  </si>
+  <si>
+    <t>24792.50</t>
+  </si>
+  <si>
+    <t>24085.89</t>
+  </si>
+  <si>
+    <t>70361.50</t>
+  </si>
+  <si>
+    <t>11171.58</t>
+  </si>
+  <si>
+    <t>2927410.00</t>
+  </si>
+  <si>
+    <t>4867.86</t>
+  </si>
+  <si>
+    <t>12503.50</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>252.68</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>32083.80</t>
+  </si>
+  <si>
+    <t>11200.00</t>
+  </si>
+  <si>
+    <t>21478.77</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>30748.56</t>
+  </si>
+  <si>
+    <t>9852.00</t>
+  </si>
+  <si>
+    <t>48649.60</t>
+  </si>
+  <si>
+    <t>4560.00</t>
+  </si>
+  <si>
+    <t>25280.00</t>
+  </si>
+  <si>
+    <t>54326.00</t>
+  </si>
+  <si>
+    <t>876500.00</t>
+  </si>
+  <si>
+    <t>8400.00</t>
+  </si>
+  <si>
+    <t>6825.00</t>
+  </si>
+  <si>
+    <t>63100.00</t>
+  </si>
+  <si>
+    <t>81500.00</t>
+  </si>
+  <si>
+    <t>26250.00</t>
+  </si>
+  <si>
+    <t>42000.00</t>
+  </si>
+  <si>
+    <t>16419.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>9950.00</t>
+  </si>
+  <si>
+    <t>21844.00</t>
+  </si>
+  <si>
+    <t>15700.00</t>
+  </si>
+  <si>
+    <t>3250.00</t>
+  </si>
+  <si>
+    <t>34965.00</t>
+  </si>
+  <si>
+    <t>331.68</t>
+  </si>
+  <si>
+    <t>1330.00</t>
+  </si>
+  <si>
+    <t>86500.00</t>
+  </si>
+  <si>
+    <t>7537.50</t>
+  </si>
+  <si>
+    <t>2760.00</t>
+  </si>
+  <si>
+    <t>48000.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>3350.00</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>38000.00</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>543300.00</t>
+  </si>
+  <si>
+    <t>6390.00</t>
+  </si>
+  <si>
+    <t>50000.00</t>
+  </si>
+  <si>
+    <t>132451.56</t>
+  </si>
+  <si>
+    <t>7900.00</t>
+  </si>
+  <si>
+    <t>103.50</t>
+  </si>
+  <si>
+    <t>8450.00</t>
+  </si>
+  <si>
+    <t>307.58</t>
+  </si>
+  <si>
+    <t>82372.50</t>
+  </si>
+  <si>
+    <t>210145.00</t>
+  </si>
+  <si>
+    <t>148438.50</t>
+  </si>
+  <si>
+    <t>16800.00</t>
+  </si>
+  <si>
+    <t>7086.12</t>
+  </si>
+  <si>
+    <t>1830.00</t>
+  </si>
+  <si>
+    <t>18913.28</t>
+  </si>
+  <si>
+    <t>8594.80</t>
+  </si>
+  <si>
+    <t>17659.01</t>
+  </si>
+  <si>
+    <t>7700.00</t>
+  </si>
+  <si>
+    <t>4642.00</t>
+  </si>
+  <si>
+    <t>131700.01</t>
+  </si>
+  <si>
+    <t>16400.00</t>
+  </si>
+  <si>
+    <t>8268.76</t>
+  </si>
+  <si>
+    <t>280.00</t>
+  </si>
+  <si>
+    <t>868.10</t>
+  </si>
+  <si>
+    <t>7220.00</t>
+  </si>
+  <si>
+    <t>1312.30</t>
+  </si>
+  <si>
+    <t>1245.00</t>
+  </si>
+  <si>
+    <t>3770.00</t>
+  </si>
+  <si>
+    <t>1040.00</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>324044.00</t>
+  </si>
+  <si>
+    <t>2900.00</t>
+  </si>
+  <si>
+    <t>83000.00</t>
+  </si>
+  <si>
+    <t>9200.00</t>
+  </si>
+  <si>
+    <t>4690000.00</t>
+  </si>
+  <si>
+    <t>120710.00</t>
+  </si>
+  <si>
+    <t>156000.00</t>
+  </si>
+  <si>
+    <t>1306698.88</t>
+  </si>
+  <si>
+    <t>12026.00</t>
+  </si>
+  <si>
+    <t>14700.00</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>4800.00</t>
+  </si>
+  <si>
+    <t>53000.00</t>
+  </si>
+  <si>
+    <t>69999.99</t>
+  </si>
+  <si>
+    <t>16000.00</t>
+  </si>
+  <si>
+    <t>25000.00</t>
+  </si>
+  <si>
+    <t>66000.00</t>
+  </si>
+  <si>
+    <t>419400.00</t>
+  </si>
+  <si>
+    <t>14000.00</t>
+  </si>
+  <si>
+    <t>33000.00</t>
+  </si>
+  <si>
+    <t>39400.00</t>
+  </si>
+  <si>
+    <t>16500.00</t>
+  </si>
+  <si>
+    <t>69000.00</t>
+  </si>
+  <si>
+    <t>3752.34</t>
+  </si>
+  <si>
+    <t>2610.00</t>
+  </si>
+  <si>
+    <t>827.90</t>
+  </si>
+  <si>
+    <t>222073.97</t>
+  </si>
+  <si>
+    <t>14985.00</t>
+  </si>
+  <si>
+    <t>4299.00</t>
+  </si>
+  <si>
+    <t>15964.47</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>35000.00</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>8500.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>23000.00</t>
+  </si>
+  <si>
+    <t>41733.20</t>
+  </si>
+  <si>
+    <t>12800.00</t>
+  </si>
+  <si>
+    <t>18000.00</t>
+  </si>
+  <si>
+    <t>41300.00</t>
+  </si>
+  <si>
+    <t>37000.00</t>
+  </si>
+  <si>
+    <t>30300.00</t>
+  </si>
+  <si>
+    <t>4600.00</t>
+  </si>
+  <si>
+    <t>16683.00</t>
+  </si>
+  <si>
+    <t>24800.00</t>
+  </si>
+  <si>
+    <t>10500.00</t>
+  </si>
+  <si>
+    <t>25300.00</t>
+  </si>
+  <si>
+    <t>890.55</t>
+  </si>
+  <si>
+    <t>9165.00</t>
+  </si>
+  <si>
+    <t>5819.90</t>
+  </si>
+  <si>
+    <t>45412.00</t>
+  </si>
+  <si>
+    <t>860.07</t>
+  </si>
+  <si>
+    <t>60270.00</t>
+  </si>
+  <si>
+    <t>11000.00</t>
+  </si>
+  <si>
+    <t>14673.50</t>
+  </si>
+  <si>
+    <t>60280.00</t>
+  </si>
+  <si>
+    <t>12081.00</t>
+  </si>
+  <si>
+    <t>2800.00</t>
+  </si>
+  <si>
+    <t>15572.57</t>
+  </si>
+  <si>
+    <t>17190.00</t>
+  </si>
+  <si>
+    <t>13370.00</t>
+  </si>
+  <si>
+    <t>43047.00</t>
+  </si>
+  <si>
+    <t>4980.00</t>
+  </si>
+  <si>
+    <t>3539.12</t>
+  </si>
+  <si>
+    <t>536.63</t>
+  </si>
+  <si>
+    <t>2350.03</t>
+  </si>
+  <si>
+    <t>525.64</t>
+  </si>
+  <si>
+    <t>6800.00</t>
+  </si>
+  <si>
+    <t>9120.00</t>
+  </si>
+  <si>
+    <t>17100.00</t>
+  </si>
+  <si>
+    <t>5400.00</t>
+  </si>
+  <si>
+    <t>97501.09</t>
+  </si>
+  <si>
+    <t>40000.00</t>
+  </si>
+  <si>
+    <t>55000.00</t>
+  </si>
+  <si>
+    <t>2790.00</t>
+  </si>
+  <si>
+    <t>5800.00</t>
+  </si>
+  <si>
+    <t>30406.61</t>
+  </si>
+  <si>
+    <t>13000.00</t>
+  </si>
+  <si>
+    <t>7206127.78</t>
+  </si>
+  <si>
+    <t>8150.00</t>
+  </si>
+  <si>
+    <t>12720.00</t>
+  </si>
+  <si>
+    <t>1140000.00</t>
+  </si>
+  <si>
+    <t>24098085.72</t>
+  </si>
+  <si>
+    <t>472500.00</t>
+  </si>
+  <si>
+    <t>266000.00</t>
+  </si>
+  <si>
+    <t>522700.00</t>
+  </si>
+  <si>
+    <t>269450.00</t>
+  </si>
+  <si>
+    <t>423700.00</t>
+  </si>
+  <si>
+    <t>236000.00</t>
+  </si>
+  <si>
+    <t>472000.00</t>
+  </si>
+  <si>
+    <t>6400.00</t>
+  </si>
+  <si>
+    <t>152200.00</t>
+  </si>
+  <si>
+    <t>784000.00</t>
+  </si>
+  <si>
+    <t>9973837.54</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>660640.00</t>
+  </si>
+  <si>
+    <t>913019.66</t>
+  </si>
+  <si>
+    <t>439560.00</t>
+  </si>
+  <si>
+    <t>823810.54</t>
+  </si>
+  <si>
+    <t>31500.00</t>
+  </si>
+  <si>
+    <t>11700.00</t>
+  </si>
+  <si>
+    <t>7200.00</t>
+  </si>
+  <si>
+    <t>656200.00</t>
+  </si>
+  <si>
+    <t>6500.00</t>
+  </si>
+  <si>
+    <t>214000.00</t>
+  </si>
+  <si>
+    <t>990.00</t>
+  </si>
+  <si>
+    <t>15120.00</t>
   </si>
 </sst>
 </file>
